--- a/GL07 Postback.xlsx
+++ b/GL07 Postback.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick.Murray\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973371E6-D301-45D0-A174-70478907391A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEAB132-15AC-4E7D-AFBF-56C3A8DD640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36960" yWindow="1440" windowWidth="28800" windowHeight="11235" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_options" sheetId="2" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
   <si>
     <t>* This sheet is manipulated by the 'Options...' dialog and should not be changed by hand</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>GBP</t>
-  </si>
-  <si>
     <t>setdefault trans_type=GL</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>sequence_no</t>
   </si>
   <si>
-    <t>FE</t>
-  </si>
-  <si>
     <t>setdefault dim_1=C1</t>
   </si>
   <si>
@@ -292,12 +286,6 @@
     <t>setdefault dim_7=12</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
@@ -323,9 +311,6 @@
   </si>
   <si>
     <t>1212</t>
-  </si>
-  <si>
-    <t>DE2</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1123,7 @@
   <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1169,97 +1154,84 @@
     </row>
     <row r="5" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>70</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C5" s="37"/>
       <c r="D5" s="35"/>
       <c r="E5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="39" t="str">
+      <c r="F5" s="39">
         <f>C5</f>
-        <v>FE</v>
+        <v>0</v>
       </c>
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>94</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C6" s="41"/>
       <c r="D6" s="35"/>
       <c r="E6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="43" t="str">
+      <c r="F6" s="43">
         <f>C6</f>
-        <v>DE2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="35"/>
     </row>
     <row r="7" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B7" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="41">
-        <v>201401</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C7" s="41"/>
       <c r="D7" s="35"/>
       <c r="E7" s="42" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="43">
         <f>C7</f>
-        <v>201401</v>
+        <v>0</v>
       </c>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B8" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="44">
-        <f ca="1">TODAY()</f>
-        <v>45447</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C8" s="44"/>
       <c r="D8" s="35"/>
       <c r="E8" s="42" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="43" t="str">
-        <f ca="1">TEXT(C8,"dd/mm/yyyy")</f>
-        <v>04/06/2024</v>
+        <f>TEXT(C8,"dd/mm/yyyy")</f>
+        <v>00/01/1900</v>
       </c>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B9" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>83</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C9" s="41"/>
       <c r="D9" s="35"/>
       <c r="E9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="43" t="str">
+      <c r="F9" s="43">
         <f>C9</f>
-        <v>GA</v>
+        <v>0</v>
       </c>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B10" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>29</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C10" s="45"/>
       <c r="D10" s="35"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
@@ -1267,11 +1239,9 @@
     </row>
     <row r="11" spans="2:7" ht="21" x14ac:dyDescent="0.4">
       <c r="B11" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>84</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C11" s="45"/>
       <c r="D11" s="35"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43"/>
@@ -1279,19 +1249,16 @@
     </row>
     <row r="12" spans="2:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B12" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="47">
-        <f ca="1">C8</f>
-        <v>45447</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C12" s="47"/>
       <c r="D12" s="35"/>
       <c r="E12" s="48" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="49" t="str">
-        <f ca="1">TEXT(C12,"dd/mm/yyyy")</f>
-        <v>04/06/2024</v>
+        <f>TEXT(C12,"dd/mm/yyyy")</f>
+        <v>00/01/1900</v>
       </c>
       <c r="G12" s="35"/>
     </row>
@@ -1313,8 +1280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1360,14 +1327,14 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Controls!E6&amp;Controls!F6</f>
-        <v>setdefault batch_id=DE2</v>
+        <v>setdefault batch_id=0</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Controls!E5&amp;Controls!F5</f>
-        <v>setdefault client=FE</v>
+        <v>setdefault client=0</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1379,7 +1346,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -1390,74 +1357,74 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Controls!E7&amp;Controls!F7</f>
-        <v>setdefault period=201401</v>
+        <v>setdefault period=0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
@@ -1467,34 +1434,34 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f ca="1">Controls!E12&amp;Controls!F12</f>
-        <v>setdefault trans_date=04/06/2024</v>
+        <f>Controls!E12&amp;Controls!F12</f>
+        <v>setdefault trans_date=00/01/1900</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f ca="1">Controls!E8&amp;Controls!F8</f>
-        <v>setdefault voucher_date=04/06/2024</v>
+        <f>Controls!E8&amp;Controls!F8</f>
+        <v>setdefault voucher_date=00/01/1900</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -1507,7 +1474,7 @@
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>Controls!E9&amp;Controls!F9</f>
-        <v>setdefault voucher_type=GA</v>
+        <v>setdefault voucher_type=0</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -1543,7 +1510,7 @@
         <v>15</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>16</v>
@@ -1584,7 +1551,7 @@
     </row>
     <row r="29" spans="1:24" ht="21" x14ac:dyDescent="0.4">
       <c r="C29" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -1634,7 +1601,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -1687,82 +1654,82 @@
         <v>27</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="I33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="P33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" s="8" t="s">
+      <c r="Q33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R33" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="S33" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T33" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V33" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="W33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W33" s="10" t="s">
+      <c r="X33" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="X33" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="12" t="e">
         <f ca="1">[1]!AgrGetDescription("A0",C34)</f>
         <v>#NAME?</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("C1",E34)</f>
@@ -1774,14 +1741,14 @@
         <v>#NAME?</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J34" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("C0",I34)</f>
         <v>#NAME?</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L34" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("07",K34)</f>
@@ -1793,7 +1760,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("08",O34)</f>
@@ -1815,24 +1782,24 @@
         <v>500</v>
       </c>
       <c r="V34" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("A0",C35)</f>
         <v>#NAME?</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("C1",E35)</f>
@@ -1844,14 +1811,14 @@
         <v>#NAME?</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("C0",I35)</f>
         <v>#NAME?</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("07",K35)</f>
@@ -1863,7 +1830,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P35" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("08",O35)</f>
@@ -1886,7 +1853,7 @@
         <v>-500</v>
       </c>
       <c r="V35" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
@@ -2085,7 +2052,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -2132,14 +2099,14 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>Controls!E6&amp;Controls!F6</f>
-        <v>setdefault batch_id=DE2</v>
+        <v>setdefault batch_id=0</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>Controls!E5&amp;Controls!F5</f>
-        <v>setdefault client=FE</v>
+        <v>setdefault client=0</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -2151,7 +2118,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -2162,74 +2129,74 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>Controls!E7&amp;Controls!F7</f>
-        <v>setdefault period=201401</v>
+        <v>setdefault period=0</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
@@ -2239,34 +2206,34 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f ca="1">Controls!E12&amp;Controls!F12</f>
-        <v>setdefault trans_date=04/06/2024</v>
+        <f>Controls!E12&amp;Controls!F12</f>
+        <v>setdefault trans_date=00/01/1900</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f ca="1">Controls!E8&amp;Controls!F8</f>
-        <v>setdefault voucher_date=04/06/2024</v>
+        <f>Controls!E8&amp;Controls!F8</f>
+        <v>setdefault voucher_date=00/01/1900</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -2279,7 +2246,7 @@
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>Controls!E9&amp;Controls!F9</f>
-        <v>setdefault voucher_type=GA</v>
+        <v>setdefault voucher_type=0</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -2315,7 +2282,7 @@
         <v>15</v>
       </c>
       <c r="T26" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>16</v>
@@ -2356,7 +2323,7 @@
     </row>
     <row r="29" spans="1:24" ht="21" x14ac:dyDescent="0.4">
       <c r="C29" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2406,7 +2373,7 @@
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C31" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -2459,82 +2426,82 @@
         <v>27</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="I33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="P33" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" s="8" t="s">
+      <c r="Q33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R33" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="S33" s="23" t="s">
         <v>28</v>
       </c>
       <c r="T33" s="50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V33" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="W33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="W33" s="10" t="s">
+      <c r="X33" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="X33" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D34" s="12" t="str">
         <f ca="1">IFERROR([3]!AgrGetDescription("A0",C34,"EN"),"Not Valid")</f>
         <v>Not Valid</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F34" s="12" t="str">
         <f ca="1">IFERROR([3]!AgrGetDescription("C1",E34,"EN"),"Not Valid")</f>
@@ -2546,14 +2513,14 @@
         <v>#NAME?</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J34" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("C0",I34)</f>
         <v>#NAME?</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L34" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("07",K34)</f>
@@ -2565,7 +2532,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("08",O34)</f>
@@ -2587,24 +2554,24 @@
         <v>500</v>
       </c>
       <c r="V34" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D35" s="12" t="str">
         <f ca="1">IFERROR([3]!AgrGetDescription("A0",C35,"EN"),"Not Valid")</f>
         <v>Not Valid</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F35" s="12" t="str">
         <f ca="1">IFERROR([3]!AgrGetDescription("C1",E35,"EN"),"Not Valid")</f>
@@ -2616,14 +2583,14 @@
         <v>#NAME?</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("C0",I35)</f>
         <v>#NAME?</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L35" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("07",K35)</f>
@@ -2635,7 +2602,7 @@
         <v>#NAME?</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P35" s="12" t="e">
         <f ca="1">[2]!AgrGetDescription("08",O35)</f>
@@ -2658,7 +2625,7 @@
         <v>-500</v>
       </c>
       <c r="V35" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
@@ -2854,21 +2821,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B61287A8A851634EBBD233344749CE7F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5eb23b72699251f6bdd5f17fb995c4ea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -2982,10 +2934,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282C507A-AF60-43AA-80AA-C5D52D6AF2D7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72414243-C1F4-42EF-A51D-7C09754A07F9}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2999,17 +2974,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72414243-C1F4-42EF-A51D-7C09754A07F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{282C507A-AF60-43AA-80AA-C5D52D6AF2D7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>